--- a/业务代码/AC_codes/空压机概况表.xlsx
+++ b/业务代码/AC_codes/空压机概况表.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,62 +479,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.3</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>DSD241</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>DSD241</t>
+          <t>BSG-50A</t>
         </is>
       </c>
     </row>
@@ -549,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,92 +580,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DSD241</t>
+          <t>BSG-50A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80644</t>
+          <t>36417</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69589</t>
+          <t>10872</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(80644-69589)/80644*40%*132=7.238</t>
+          <t>(36417-10872)/36417*40%*37=10.3816</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>132*(1.1)*7%=10.164</t>
+          <t>37*(1)*7%=2.59</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17.402</t>
+          <t>12.9716</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(132*1.15*0.8629+17.402)/(20.3*0.8629)=8.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DSD241</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>105920</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91201</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(105920-91201)/105920*40%*132=7.3373</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>132*(1.1)*7%=10.164</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>17.5013</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>(132*1.15*0.861+17.5013)/(20.3*0.861)=8.48</t>
+          <t>(37*1.15*0.2985+12.9716)/(6.3*0.2985)=13.65</t>
         </is>
       </c>
     </row>
@@ -715,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,12 +645,6 @@
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -750,17 +659,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>凯撒</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>捷豹</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>凯撒</t>
+          <t>博世格</t>
         </is>
       </c>
     </row>
@@ -772,22 +671,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZLS150-2iG</t>
+          <t>ZLS50-2iG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DSD241</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ZLS150-2iG</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DSD241</t>
+          <t>BSG-50A</t>
         </is>
       </c>
     </row>
@@ -799,19 +688,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>132</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>132</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -822,22 +703,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20.3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.3</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -857,16 +728,6 @@
           <t>工频</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>变频</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>工频</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -875,16 +736,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.9</v>
+        <v>6.36</v>
       </c>
       <c r="C7" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8.48</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="8">
@@ -894,16 +749,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0983</v>
+        <v>0.106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1412</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0983</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1413</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="9">
@@ -913,16 +762,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.34</v>
+        <v>53.41</v>
       </c>
       <c r="C9" t="n">
-        <v>30.34</v>
-      </c>
-      <c r="D9" t="n">
-        <v>30.42</v>
-      </c>
-      <c r="E9" t="n">
-        <v>30.42</v>
+        <v>53.41</v>
       </c>
     </row>
     <row r="10">
@@ -932,16 +775,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.0184</v>
+        <v>13.7088</v>
       </c>
       <c r="C10" t="n">
-        <v>45.0184</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45.094</v>
-      </c>
-      <c r="E10" t="n">
-        <v>45.094</v>
+        <v>13.7088</v>
       </c>
     </row>
     <row r="11">
@@ -951,16 +788,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226893</v>
+        <v>88010</v>
       </c>
       <c r="C11" t="n">
-        <v>226893</v>
-      </c>
-      <c r="D11" t="n">
-        <v>227274</v>
-      </c>
-      <c r="E11" t="n">
-        <v>227274</v>
+        <v>88010</v>
       </c>
     </row>
     <row r="12">
@@ -970,16 +801,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>454167</v>
+        <v>88010</v>
       </c>
       <c r="C12" t="n">
-        <v>454167</v>
-      </c>
-      <c r="D12" t="n">
-        <v>454167</v>
-      </c>
-      <c r="E12" t="n">
-        <v>454167</v>
+        <v>88010</v>
       </c>
     </row>
   </sheetData>
